--- a/biology/Médecine/Chromosomes_humains/Chromosomes_humains.xlsx
+++ b/biology/Médecine/Chromosomes_humains/Chromosomes_humains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le schéma des chromosomes humains, chaque cellule somatique humaine possède 22 paires de chromosomes homologues (également appelés autosomes), numérotés de 1 à 22, et une paire de chromosomes sexuels (également appelés hétérochromosomes ou gonosomes), soit un total de 23 paires.
 </t>
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Une copie du génome humain entier, soit les 23 chromosomes déroulés et mis bout à bout, mesure 1 mètre. Cela signifie que chaque cellule de notre corps (qui possède deux copies de chaque chromosome) contient plus de 2 mètres d’ADN. Le nombre total des gènes humains est estimé à 21 000 »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Une copie du génome humain entier, soit les 23 chromosomes déroulés et mis bout à bout, mesure 1 mètre. Cela signifie que chaque cellule de notre corps (qui possède deux copies de chaque chromosome) contient plus de 2 mètres d’ADN. Le nombre total des gènes humains est estimé à 21 000 ».
 Le sexe d'un individu est déterminé par le Système XY : les femmes possèdent deux chromosomes X (XX) tandis que les hommes possèdent un chromosome X et un chromosome Y (XY). Les deux chromosomes X de la femme sont homologues, mais le chromosome Y n'est homologue au chromosome X que pour une petite partie.
 La raison pour laquelle on a deux chromosomes de chaque sorte est qu'on en obtient un de son père et un de sa mère. La présence de deux copies de chaque chromosome est très pratique pour la fonction des cellules et pour l'évolution en général.
-Leur désignation a été définie par le Human Chromosome Study Group qui s'est réuni en  1960  à l'Université du Colorado à Denver[2] : la dénomination du chromosome X a été introduite par Hermann Henking et celle de Y par Edmund Beecher Wilson, les autosomes sont numérotés par taille décroissante[3].
+Leur désignation a été définie par le Human Chromosome Study Group qui s'est réuni en  1960  à l'Université du Colorado à Denver : la dénomination du chromosome X a été introduite par Hermann Henking et celle de Y par Edmund Beecher Wilson, les autosomes sont numérotés par taille décroissante.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Chromosome 1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le chromosome 1, long de 246 millions de paires de base, est le plus grand des chromosomes.
 Il représente 8 % de l'ADN nucléaire.
@@ -605,7 +623,9 @@
           <t>Chromosome 2</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le chromosome 2 est long de 243 millions de paires de base.
 Il représente 8 % de l'ADN nucléaire.
@@ -639,7 +659,9 @@
           <t>Chromosome 3</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le chromosome 3 est long de 200 millions de paires de base.
 Il représente 6,5 % de l'ADN nucléaire.
@@ -673,7 +695,9 @@
           <t>Chromosome 4</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le chromosome 4 est long de 191 millions de paires de base.
 Il représente 6 % de l'ADN nucléaire.
@@ -707,7 +731,9 @@
           <t>Chromosome 5</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le chromosome 5 est long de 180 millions de paires de base.
 Il représente environ 6 % de l'ADN nucléaire.
@@ -741,7 +767,9 @@
           <t>Chromosome 6</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Le chromosome 6 est long de 170 millions de paires de base.
 Il représente entre 5,5 % et 6 % de l'ADN nucléaire.
@@ -775,7 +803,9 @@
           <t>Chromosome 7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Le chromosome 7 est long de 158 millions de paires de base.
 Il représente entre 5 % et 5,5 % de l'ADN nucléaire.
@@ -809,7 +839,9 @@
           <t>Chromosome 8</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Le chromosome 8 est long de 146 millions de paires de base.
 Il représente entre 4,5 % et 5 % de l'ADN nucléaire.
@@ -843,7 +875,9 @@
           <t>Chromosome 9</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Le chromosome 9 est long de 136 millions de paires de base.
 Il représente entre 4 et 4,5 % de l'ADN nucléaire.
@@ -877,7 +911,9 @@
           <t>Chromosome 10</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Le chromosome 10 est long de 135 millions de paires de base.
 Il représente entre 4 et 4,5 % de l'ADN nucléaire.
@@ -911,7 +947,9 @@
           <t>Chromosome 11</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Le chromosome 11 est long de 134 millions de paires de base.
 Il représente entre 4 et 4,5 % de l'ADN nucléaire.
@@ -945,7 +983,9 @@
           <t>Chromosome 12</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Le chromosome 12 est long de 132 millions de paires de base.
 Il représente entre 4 et 4,5 % de l'ADN nucléaire.
@@ -979,7 +1019,9 @@
           <t>Chromosome 13</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Le chromosome 13 est long de 113 millions de paires de base.
 Il représente entre 3,5 % et 4 % de l'ADN nucléaire.
@@ -1013,7 +1055,9 @@
           <t>Chromosome 14</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Le chromosome 14 est long de 105 millions de paires de base.
 Il représente entre 3 et 3,5 % de l'ADN nucléaire.
@@ -1047,7 +1091,9 @@
           <t>Chromosome 15</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Le chromosome 15 est long de 100 millions de paires de base.
 Il représente entre 3 et 3,5 % de l'ADN nucléaire.
@@ -1081,7 +1127,9 @@
           <t>Chromosome 16</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Le chromosome 16 est long de 90 millions de paires de base.
 Il représente un peu moins de 3 % de l'ADN nucléaire.
@@ -1115,7 +1163,9 @@
           <t>Chromosome 17</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Le chromosome 17 est long de 81 millions de paires de base.
 Il représente entre 2 et 2,5 % de l'ADN nucléaire.
@@ -1149,7 +1199,9 @@
           <t>Chromosome 18</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Le chromosome 18 est long de 76 millions de paires de base.
 Il représente 2,5 % de l'ADN nucléaire.
@@ -1183,7 +1235,9 @@
           <t>Chromosome 19</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Le chromosome 19 est long de 63 millions de paires de base.
 Il représente entre 2 et 2,5 % de l'ADN nucléaire.
@@ -1217,7 +1271,9 @@
           <t>Chromosome 20</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Le chromosome 20 est long de 63 millions de paires de base.
 Il représente entre 2 et 2,5 % de l'ADN nucléaire.
@@ -1251,7 +1307,9 @@
           <t>Chromosome 21</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Le chromosome 21 est long de 47 millions de paires de base.
 Il représente 1,5 % de l'ADN nucléaire.
@@ -1286,7 +1344,9 @@
           <t>Chromosome 22</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Le chromosome 22 est long de 49 millions de paires de base.
 Il représente entre 1,5 % et 2 % de l'ADN nucléaire.
@@ -1320,7 +1380,9 @@
           <t>Chromosome X</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Le chromosome X est long de 153 millions de paires de base.
 Il représente 5 % de l'ADN nucléaire.
@@ -1355,7 +1417,9 @@
           <t>Chromosome Y</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Le chromosome Y est long de 50 millions de paires de base.
 Il représente entre 1,5 % et 2 % de l'ADN nucléaire.
